--- a/HTML/aula14/Atividade.xlsx
+++ b/HTML/aula14/Atividade.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.lhjunior\Desktop\Web\TecWeb-N1\HTML\aula14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA225A-3B9C-4A6B-A1F4-4EC3B69C0BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AA0ACB-CE5A-498E-8E19-6414D6C33A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{EEECE0AC-7BBB-4D8E-A03C-1A719E29B121}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>p-x</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -146,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,7 +167,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -494,13 +502,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1AA3AF-F3FF-46DF-84FD-AD0F38E1E5A3}">
-  <dimension ref="B1:M22"/>
+  <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -538,8 +548,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="2"/>
@@ -553,7 +563,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="7"/>
       <c r="D4" s="4"/>
@@ -567,7 +577,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -581,21 +591,11 @@
       <c r="L5" s="6"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -609,7 +609,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -623,117 +623,92 @@
       <c r="L8" s="6"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="9"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="9"/>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="9"/>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
       <c r="F16" s="4"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="9"/>
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="10"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
@@ -765,45 +740,27 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
@@ -822,4 +779,16 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAFD0CF-820E-422B-BD4A-225E8F6FA8B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>